--- a/statistics/R/roiHumanBody_Within-PLI_theta/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_theta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003099081224081257</v>
+        <v>0.0015495406120406285</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08556196889530221</v>
+        <v>0.042780984447651105</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09135016013573893</v>
+        <v>0.04567508006786947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03303099017384731</v>
+        <v>0.016515495086923654</v>
       </c>
       <c r="G2" t="n">
-        <v>0.032846749811035525</v>
+        <v>0.016423374905517762</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0027110259308402718</v>
+        <v>-0.0013555129654201359</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.002762215997510198</v>
+        <v>-0.001381107998755099</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03494953536970341</v>
+        <v>0.017474767684851705</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.005977946734249284</v>
+        <v>-0.002988973367124642</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.022798008092125843</v>
+        <v>-0.011399004046062922</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.035247432306255766</v>
+        <v>-0.017623716153127883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06972789115646266</v>
+        <v>0.03486394557823133</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.022682346211757964</v>
+        <v>-0.011341173105878982</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03383856466563229</v>
+        <v>-0.016919282332816143</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08231404722632796</v>
+        <v>0.04115702361316398</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.027534708090263704</v>
+        <v>-0.013767354045131852</v>
       </c>
       <c r="G4" t="n">
-        <v>0.017864878244995275</v>
+        <v>0.008932439122497637</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009302342635675975</v>
+        <v>0.004651171317837988</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.008798594512880287</v>
+        <v>-0.004399297256440143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03434477045588147</v>
+        <v>0.017172385227940734</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.015381591232984382</v>
+        <v>-0.007690795616492191</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0018705574261129176</v>
+        <v>9.352787130564588E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06254863056333648</v>
+        <v>-0.03127431528166824</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.05993643248545211</v>
+        <v>-0.029968216242726053</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.062316895650229076</v>
+        <v>0.031158447825114538</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07533519182264692</v>
+        <v>-0.03766759591132346</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02229322705513187</v>
+        <v>-0.011146613527565935</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03790849673202612</v>
+        <v>-0.01895424836601306</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03369696226839092</v>
+        <v>0.01684848113419546</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.08489044600155704</v>
+        <v>-0.04244522300077852</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0581294506106535</v>
+        <v>0.02906472530532675</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.13756142187514736</v>
+        <v>-0.06878071093757368</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0828447495114163</v>
+        <v>0.04142237475570815</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025925925925925963</v>
+        <v>0.012962962962962982</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.046178193499622155</v>
+        <v>-0.023089096749811078</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.036667506508776426</v>
+        <v>-0.018333753254388213</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09195750372220951</v>
+        <v>0.045978751861104755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0012323067878621807</v>
+        <v>6.161533939310904E-4</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0020891072478373407</v>
+        <v>-0.0010445536239186703</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03533554922443827</v>
+        <v>-0.017667774612219134</v>
       </c>
       <c r="G8" t="n">
-        <v>0.040679454965169226</v>
+        <v>0.020339727482584613</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0368625073486184</v>
+        <v>0.0184312536743092</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01036906766073431</v>
+        <v>0.005184533830367155</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.011784068466096143</v>
+        <v>-0.005892034233048071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.10171038112214581</v>
+        <v>0.050855190561072905</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.033715461493239285</v>
+        <v>-0.016857730746619642</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03895160757905847</v>
+        <v>-0.019475803789529234</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.029266839939354528</v>
+        <v>-0.014633419969677264</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.08267529233915799</v>
+        <v>-0.041337646169578995</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02659426343636867</v>
+        <v>-0.013297131718184335</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03840779555065271</v>
+        <v>-0.019203897775326356</v>
       </c>
       <c r="F10" t="n">
-        <v>0.019136543506291515</v>
+        <v>0.009568271753145757</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04397254397254402</v>
+        <v>-0.02198627198627201</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.009879507358498851</v>
+        <v>-0.004939753679249426</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02899029982363316</v>
+        <v>-0.01449514991181658</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.027708159287106682</v>
+        <v>-0.013854079643553341</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0541255541255542</v>
+        <v>-0.0270627770627771</v>
       </c>
       <c r="F11" t="n">
-        <v>0.016218003718003693</v>
+        <v>0.008109001859001846</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0025132275132274118</v>
+        <v>-0.0012566137566137059</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0065515759960203535</v>
+        <v>-0.0032757879980101767</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.040052053209947924</v>
+        <v>0.020026026604973962</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04071204948397922</v>
+        <v>-0.02035602474198961</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.025055667912810886</v>
+        <v>-0.012527833956405443</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01001113895850736</v>
+        <v>0.00500556947925368</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003710876517894035</v>
+        <v>0.0018554382589470175</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0032560032560032814</v>
+        <v>-0.0016280016280016407</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06027711729466123</v>
+        <v>0.030138558647330616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0651598026598027</v>
+        <v>0.03257990132990135</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04720481759955464</v>
+        <v>-0.02360240879977732</v>
       </c>
       <c r="F13" t="n">
-        <v>0.010052910052910036</v>
+        <v>0.005026455026455018</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.17903495681127E-4</v>
+        <v>-3.589517478405635E-4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0324404315632385</v>
+        <v>0.01622021578161925</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.004591836734693822</v>
+        <v>-0.002295918367346911</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0490152851263963</v>
+        <v>-0.02450764256319815</v>
       </c>
       <c r="E14" t="n">
-        <v>0.10821842250413688</v>
+        <v>0.05410921125206844</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04134596781655603</v>
+        <v>-0.020672983908278014</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.00614900614900632</v>
+        <v>-0.00307450307450316</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00248516915183572</v>
+        <v>0.00124258457591786</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.007618007618007683</v>
+        <v>-0.0038090038090038414</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0040337957004623615</v>
+        <v>-0.0020168978502311807</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.009951465966503537</v>
+        <v>-0.004975732983251768</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005695545169229321</v>
+        <v>0.0028477725846146607</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07664648350922865</v>
+        <v>0.03832324175461432</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0027017074636121463</v>
+        <v>0.0013508537318060732</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.07002240335573684</v>
+        <v>-0.03501120167786842</v>
       </c>
       <c r="D16" t="n">
-        <v>0.028449596212754114</v>
+        <v>0.014224798106377057</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.036111202777869444</v>
+        <v>-0.018055601388934722</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.03550543024227237</v>
+        <v>-0.017752715121136187</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.007145673812340547</v>
+        <v>-0.0035728369061702736</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.041964934121797026</v>
+        <v>-0.020982467060898513</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.048206937095825964</v>
+        <v>-0.024103468547912982</v>
       </c>
       <c r="D17" t="n">
-        <v>0.016674623065600414</v>
+        <v>0.008337311532800207</v>
       </c>
       <c r="E17" t="n">
-        <v>0.057986557986557996</v>
+        <v>0.028993278993278998</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.031120864454197872</v>
+        <v>-0.015560432227098936</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.021521521521521425</v>
+        <v>-0.010760760760760713</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04860018748907635</v>
+        <v>0.024300093744538176</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09305284816980736</v>
+        <v>0.04652642408490368</v>
       </c>
       <c r="D18" t="n">
-        <v>0.021261487050960648</v>
+        <v>0.010630743525480324</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.022772071791679727</v>
+        <v>-0.011386035895839863</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0567857773740128</v>
+        <v>0.0283928886870064</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07861342067691285</v>
+        <v>0.039306710338456424</v>
       </c>
       <c r="H18" t="n">
-        <v>0.020939363399680888</v>
+        <v>0.010469681699840444</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.08323885109599405</v>
+        <v>-0.041619425547997024</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.023844333054859446</v>
+        <v>-0.011922166527429723</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02120970176525727</v>
+        <v>0.010604850882628636</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08929595229904819</v>
+        <v>0.04464797614952409</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.06323552990219661</v>
+        <v>-0.031617764951098304</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.04446151220344774</v>
+        <v>-0.02223075610172387</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.008971451828594657</v>
+        <v>-0.004485725914297328</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.047579534421639647</v>
+        <v>-0.023789767210819823</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.02549970605526164</v>
+        <v>-0.01274985302763082</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05313749431396486</v>
+        <v>0.02656874715698243</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0038665038665039453</v>
+        <v>0.0019332519332519726</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.041738917789338026</v>
+        <v>-0.020869458894669013</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007441507441507511</v>
+        <v>0.0037207537207537555</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08239259116452108</v>
+        <v>0.04119629558226054</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.013878347211680409</v>
+        <v>-0.006939173605840204</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0473584245514071</v>
+        <v>-0.02367921227570355</v>
       </c>
       <c r="G21" t="n">
-        <v>0.14540517961570604</v>
+        <v>0.07270258980785302</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.09203525870192542</v>
+        <v>-0.04601762935096271</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.024968245556480806</v>
+        <v>-0.012484122778240403</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05229460611405057</v>
+        <v>0.026147303057025284</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0031239979156645337</v>
+        <v>0.0015619989578322668</v>
       </c>
       <c r="F22" t="n">
-        <v>0.019341654790571317</v>
+        <v>0.009670827395285658</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.010052910052910036</v>
+        <v>-0.005026455026455018</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.029219695886362418</v>
+        <v>-0.014609847943181209</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0271700271700272</v>
+        <v>-0.0135850135850136</v>
       </c>
       <c r="D23" t="n">
-        <v>0.020134420134420072</v>
+        <v>0.010067210067210036</v>
       </c>
       <c r="E23" t="n">
-        <v>0.10913733282154331</v>
+        <v>0.054568666410771655</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0544720544720545</v>
+        <v>-0.02723602723602725</v>
       </c>
       <c r="G23" t="n">
-        <v>0.11756681493523591</v>
+        <v>0.058783407467617954</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.06220821661998133</v>
+        <v>-0.031104108309990663</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0609180609180609</v>
+        <v>0.03045903045903045</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.08968795445403632</v>
+        <v>-0.04484397722701816</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00664767331434013</v>
+        <v>0.003323836657170065</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.08340295182400442</v>
+        <v>-0.04170147591200221</v>
       </c>
       <c r="G24" t="n">
-        <v>0.043870359659833325</v>
+        <v>0.021935179829916662</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.049413062570957456</v>
+        <v>-0.024706531285478728</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01762846590432804</v>
+        <v>-0.00881423295216402</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03703703703703698</v>
+        <v>0.01851851851851849</v>
       </c>
       <c r="E25" t="n">
-        <v>0.032231365564698855</v>
+        <v>0.016115682782349428</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.026455026455026398</v>
+        <v>-0.013227513227513199</v>
       </c>
       <c r="G25" t="n">
-        <v>0.021807645617169413</v>
+        <v>0.010903822808584707</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08620897683397688</v>
+        <v>0.04310448841698844</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.10946347349856134</v>
+        <v>-0.05473173674928067</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.016355130640844928</v>
+        <v>-0.008177565320422464</v>
       </c>
       <c r="E26" t="n">
-        <v>0.013201576927067082</v>
+        <v>0.006600788463533541</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.04664588057445207</v>
+        <v>-0.023322940287226035</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.007614299280966019</v>
+        <v>-0.0038071496404830096</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05667081647473815</v>
+        <v>0.028335408237369075</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06279230840634353</v>
+        <v>0.03139615420317177</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03472802376311146</v>
+        <v>-0.01736401188155573</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.018026189454760866</v>
+        <v>-0.009013094727380433</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.016230516230516245</v>
+        <v>-0.008115258115258123</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.006512006512006507</v>
+        <v>-0.0032560032560032537</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05062205062205061</v>
+        <v>0.025311025311025304</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.005599647266314067</v>
+        <v>-0.0027998236331570336</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02271857110566794</v>
+        <v>0.01135928555283397</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.06714651159095614</v>
+        <v>-0.03357325579547807</v>
       </c>
       <c r="F28" t="n">
-        <v>0.042290249433106664</v>
+        <v>0.021145124716553332</v>
       </c>
       <c r="G28" t="n">
-        <v>0.047136273864384515</v>
+        <v>0.023568136932192257</v>
       </c>
       <c r="H28" t="n">
-        <v>7.780890133840535E-5</v>
+        <v>3.890445066920267E-5</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.008214981899192453</v>
+        <v>0.004107490949596226</v>
       </c>
       <c r="D29" t="n">
-        <v>4.656671323338135E-4</v>
+        <v>2.3283356616690676E-4</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05784157173046073</v>
+        <v>0.028920785865230364</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01754385964912275</v>
+        <v>0.008771929824561375</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07683806255234821</v>
+        <v>0.038419031276174104</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.030459030459030423</v>
+        <v>-0.015229515229515211</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07752037752037744</v>
+        <v>0.03876018876018872</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04402616902616907</v>
+        <v>-0.022013084513084535</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003688212021545345</v>
+        <v>0.0018441060107726726</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.005421492921492965</v>
+        <v>-0.0027107464607464826</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.05562169312169318</v>
+        <v>-0.02781084656084659</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04046339572655355</v>
+        <v>0.020231697863276776</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.053</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.051</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="G4" t="n">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.039</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="G6" t="n">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="G7" t="n">
-        <v>0.046</v>
+        <v>0.023</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>6.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.13756142187514736</v>
+        <v>-0.06878071093757368</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>20.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14540517961570604</v>
+        <v>0.07270258980785302</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>

--- a/statistics/R/roiHumanBody_Within-PLI_theta/output.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_theta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0015495406120406285</v>
+        <v>0.003099081224081257</v>
       </c>
       <c r="D2" t="n">
-        <v>0.042780984447651105</v>
+        <v>0.08556196889530221</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04567508006786947</v>
+        <v>0.09135016013573893</v>
       </c>
       <c r="F2" t="n">
-        <v>0.016515495086923654</v>
+        <v>0.03303099017384731</v>
       </c>
       <c r="G2" t="n">
-        <v>0.016423374905517762</v>
+        <v>0.032846749811035525</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0013555129654201359</v>
+        <v>-0.0027110259308402718</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001381107998755099</v>
+        <v>-0.002762215997510198</v>
       </c>
       <c r="D3" t="n">
-        <v>0.017474767684851705</v>
+        <v>0.03494953536970341</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.002988973367124642</v>
+        <v>-0.005977946734249284</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.011399004046062922</v>
+        <v>-0.022798008092125843</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.017623716153127883</v>
+        <v>-0.035247432306255766</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03486394557823133</v>
+        <v>0.06972789115646266</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.011341173105878982</v>
+        <v>-0.022682346211757964</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.016919282332816143</v>
+        <v>-0.03383856466563229</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04115702361316398</v>
+        <v>0.08231404722632796</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.013767354045131852</v>
+        <v>-0.027534708090263704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008932439122497637</v>
+        <v>0.017864878244995275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004651171317837988</v>
+        <v>0.009302342635675975</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.004399297256440143</v>
+        <v>-0.008798594512880287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.017172385227940734</v>
+        <v>0.03434477045588147</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.007690795616492191</v>
+        <v>-0.015381591232984382</v>
       </c>
       <c r="F5" t="n">
-        <v>9.352787130564588E-4</v>
+        <v>0.0018705574261129176</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03127431528166824</v>
+        <v>-0.06254863056333648</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.029968216242726053</v>
+        <v>-0.05993643248545211</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.031158447825114538</v>
+        <v>0.062316895650229076</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03766759591132346</v>
+        <v>-0.07533519182264692</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.011146613527565935</v>
+        <v>-0.02229322705513187</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01895424836601306</v>
+        <v>-0.03790849673202612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01684848113419546</v>
+        <v>0.03369696226839092</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.04244522300077852</v>
+        <v>-0.08489044600155704</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02906472530532675</v>
+        <v>0.0581294506106535</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.06878071093757368</v>
+        <v>-0.13756142187514736</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04142237475570815</v>
+        <v>0.0828447495114163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.012962962962962982</v>
+        <v>0.025925925925925963</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.023089096749811078</v>
+        <v>-0.046178193499622155</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.018333753254388213</v>
+        <v>-0.036667506508776426</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.045978751861104755</v>
+        <v>0.09195750372220951</v>
       </c>
       <c r="D8" t="n">
-        <v>6.161533939310904E-4</v>
+        <v>0.0012323067878621807</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0010445536239186703</v>
+        <v>-0.0020891072478373407</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.017667774612219134</v>
+        <v>-0.03533554922443827</v>
       </c>
       <c r="G8" t="n">
-        <v>0.020339727482584613</v>
+        <v>0.040679454965169226</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0184312536743092</v>
+        <v>0.0368625073486184</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005184533830367155</v>
+        <v>0.01036906766073431</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005892034233048071</v>
+        <v>-0.011784068466096143</v>
       </c>
       <c r="E9" t="n">
-        <v>0.050855190561072905</v>
+        <v>0.10171038112214581</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.016857730746619642</v>
+        <v>-0.033715461493239285</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.019475803789529234</v>
+        <v>-0.03895160757905847</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.014633419969677264</v>
+        <v>-0.029266839939354528</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.041337646169578995</v>
+        <v>-0.08267529233915799</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.013297131718184335</v>
+        <v>-0.02659426343636867</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.019203897775326356</v>
+        <v>-0.03840779555065271</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009568271753145757</v>
+        <v>0.019136543506291515</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02198627198627201</v>
+        <v>-0.04397254397254402</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.004939753679249426</v>
+        <v>-0.009879507358498851</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01449514991181658</v>
+        <v>-0.02899029982363316</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.013854079643553341</v>
+        <v>-0.027708159287106682</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0270627770627771</v>
+        <v>-0.0541255541255542</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008109001859001846</v>
+        <v>0.016218003718003693</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0012566137566137059</v>
+        <v>-0.0025132275132274118</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0032757879980101767</v>
+        <v>-0.0065515759960203535</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.020026026604973962</v>
+        <v>0.040052053209947924</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02035602474198961</v>
+        <v>-0.04071204948397922</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.012527833956405443</v>
+        <v>-0.025055667912810886</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00500556947925368</v>
+        <v>0.01001113895850736</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0018554382589470175</v>
+        <v>0.003710876517894035</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0016280016280016407</v>
+        <v>-0.0032560032560032814</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.030138558647330616</v>
+        <v>0.06027711729466123</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03257990132990135</v>
+        <v>0.0651598026598027</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02360240879977732</v>
+        <v>-0.04720481759955464</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005026455026455018</v>
+        <v>0.010052910052910036</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.589517478405635E-4</v>
+        <v>-7.17903495681127E-4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01622021578161925</v>
+        <v>0.0324404315632385</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.002295918367346911</v>
+        <v>-0.004591836734693822</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.02450764256319815</v>
+        <v>-0.0490152851263963</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05410921125206844</v>
+        <v>0.10821842250413688</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.020672983908278014</v>
+        <v>-0.04134596781655603</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.00307450307450316</v>
+        <v>-0.00614900614900632</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00124258457591786</v>
+        <v>0.00248516915183572</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0038090038090038414</v>
+        <v>-0.007618007618007683</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0020168978502311807</v>
+        <v>-0.0040337957004623615</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.004975732983251768</v>
+        <v>-0.009951465966503537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0028477725846146607</v>
+        <v>0.005695545169229321</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03832324175461432</v>
+        <v>0.07664648350922865</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0013508537318060732</v>
+        <v>0.0027017074636121463</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03501120167786842</v>
+        <v>-0.07002240335573684</v>
       </c>
       <c r="D16" t="n">
-        <v>0.014224798106377057</v>
+        <v>0.028449596212754114</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.018055601388934722</v>
+        <v>-0.036111202777869444</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.017752715121136187</v>
+        <v>-0.03550543024227237</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0035728369061702736</v>
+        <v>-0.007145673812340547</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.020982467060898513</v>
+        <v>-0.041964934121797026</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.024103468547912982</v>
+        <v>-0.048206937095825964</v>
       </c>
       <c r="D17" t="n">
-        <v>0.008337311532800207</v>
+        <v>0.016674623065600414</v>
       </c>
       <c r="E17" t="n">
-        <v>0.028993278993278998</v>
+        <v>0.057986557986557996</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.015560432227098936</v>
+        <v>-0.031120864454197872</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.010760760760760713</v>
+        <v>-0.021521521521521425</v>
       </c>
       <c r="H17" t="n">
-        <v>0.024300093744538176</v>
+        <v>0.04860018748907635</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04652642408490368</v>
+        <v>0.09305284816980736</v>
       </c>
       <c r="D18" t="n">
-        <v>0.010630743525480324</v>
+        <v>0.021261487050960648</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.011386035895839863</v>
+        <v>-0.022772071791679727</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0283928886870064</v>
+        <v>0.0567857773740128</v>
       </c>
       <c r="G18" t="n">
-        <v>0.039306710338456424</v>
+        <v>0.07861342067691285</v>
       </c>
       <c r="H18" t="n">
-        <v>0.010469681699840444</v>
+        <v>0.020939363399680888</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.041619425547997024</v>
+        <v>-0.08323885109599405</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.011922166527429723</v>
+        <v>-0.023844333054859446</v>
       </c>
       <c r="E19" t="n">
-        <v>0.010604850882628636</v>
+        <v>0.02120970176525727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04464797614952409</v>
+        <v>0.08929595229904819</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.031617764951098304</v>
+        <v>-0.06323552990219661</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02223075610172387</v>
+        <v>-0.04446151220344774</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.004485725914297328</v>
+        <v>-0.008971451828594657</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.023789767210819823</v>
+        <v>-0.047579534421639647</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01274985302763082</v>
+        <v>-0.02549970605526164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02656874715698243</v>
+        <v>0.05313749431396486</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0019332519332519726</v>
+        <v>0.0038665038665039453</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.020869458894669013</v>
+        <v>-0.041738917789338026</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0037207537207537555</v>
+        <v>0.007441507441507511</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04119629558226054</v>
+        <v>0.08239259116452108</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.006939173605840204</v>
+        <v>-0.013878347211680409</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02367921227570355</v>
+        <v>-0.0473584245514071</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07270258980785302</v>
+        <v>0.14540517961570604</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.04601762935096271</v>
+        <v>-0.09203525870192542</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.012484122778240403</v>
+        <v>-0.024968245556480806</v>
       </c>
       <c r="D22" t="n">
-        <v>0.026147303057025284</v>
+        <v>0.05229460611405057</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0015619989578322668</v>
+        <v>0.0031239979156645337</v>
       </c>
       <c r="F22" t="n">
-        <v>0.009670827395285658</v>
+        <v>0.019341654790571317</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005026455026455018</v>
+        <v>-0.010052910052910036</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.014609847943181209</v>
+        <v>-0.029219695886362418</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0135850135850136</v>
+        <v>-0.0271700271700272</v>
       </c>
       <c r="D23" t="n">
-        <v>0.010067210067210036</v>
+        <v>0.020134420134420072</v>
       </c>
       <c r="E23" t="n">
-        <v>0.054568666410771655</v>
+        <v>0.10913733282154331</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.02723602723602725</v>
+        <v>-0.0544720544720545</v>
       </c>
       <c r="G23" t="n">
-        <v>0.058783407467617954</v>
+        <v>0.11756681493523591</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.031104108309990663</v>
+        <v>-0.06220821661998133</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03045903045903045</v>
+        <v>0.0609180609180609</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.04484397722701816</v>
+        <v>-0.08968795445403632</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003323836657170065</v>
+        <v>0.00664767331434013</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.04170147591200221</v>
+        <v>-0.08340295182400442</v>
       </c>
       <c r="G24" t="n">
-        <v>0.021935179829916662</v>
+        <v>0.043870359659833325</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.024706531285478728</v>
+        <v>-0.049413062570957456</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00881423295216402</v>
+        <v>-0.01762846590432804</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01851851851851849</v>
+        <v>0.03703703703703698</v>
       </c>
       <c r="E25" t="n">
-        <v>0.016115682782349428</v>
+        <v>0.032231365564698855</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.013227513227513199</v>
+        <v>-0.026455026455026398</v>
       </c>
       <c r="G25" t="n">
-        <v>0.010903822808584707</v>
+        <v>0.021807645617169413</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04310448841698844</v>
+        <v>0.08620897683397688</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.05473173674928067</v>
+        <v>-0.10946347349856134</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.008177565320422464</v>
+        <v>-0.016355130640844928</v>
       </c>
       <c r="E26" t="n">
-        <v>0.006600788463533541</v>
+        <v>0.013201576927067082</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.023322940287226035</v>
+        <v>-0.04664588057445207</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0038071496404830096</v>
+        <v>-0.007614299280966019</v>
       </c>
       <c r="H26" t="n">
-        <v>0.028335408237369075</v>
+        <v>0.05667081647473815</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03139615420317177</v>
+        <v>0.06279230840634353</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.01736401188155573</v>
+        <v>-0.03472802376311146</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.009013094727380433</v>
+        <v>-0.018026189454760866</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.008115258115258123</v>
+        <v>-0.016230516230516245</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0032560032560032537</v>
+        <v>-0.006512006512006507</v>
       </c>
       <c r="H27" t="n">
-        <v>0.025311025311025304</v>
+        <v>0.05062205062205061</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0027998236331570336</v>
+        <v>-0.005599647266314067</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01135928555283397</v>
+        <v>0.02271857110566794</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.03357325579547807</v>
+        <v>-0.06714651159095614</v>
       </c>
       <c r="F28" t="n">
-        <v>0.021145124716553332</v>
+        <v>0.042290249433106664</v>
       </c>
       <c r="G28" t="n">
-        <v>0.023568136932192257</v>
+        <v>0.047136273864384515</v>
       </c>
       <c r="H28" t="n">
-        <v>3.890445066920267E-5</v>
+        <v>7.780890133840535E-5</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004107490949596226</v>
+        <v>0.008214981899192453</v>
       </c>
       <c r="D29" t="n">
-        <v>2.3283356616690676E-4</v>
+        <v>4.656671323338135E-4</v>
       </c>
       <c r="E29" t="n">
-        <v>0.028920785865230364</v>
+        <v>0.05784157173046073</v>
       </c>
       <c r="F29" t="n">
-        <v>0.008771929824561375</v>
+        <v>0.01754385964912275</v>
       </c>
       <c r="G29" t="n">
-        <v>0.038419031276174104</v>
+        <v>0.07683806255234821</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.015229515229515211</v>
+        <v>-0.030459030459030423</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03876018876018872</v>
+        <v>0.07752037752037744</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.022013084513084535</v>
+        <v>-0.04402616902616907</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0018441060107726726</v>
+        <v>0.003688212021545345</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0027107464607464826</v>
+        <v>-0.005421492921492965</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02781084656084659</v>
+        <v>-0.05562169312169318</v>
       </c>
       <c r="H30" t="n">
-        <v>0.020231697863276776</v>
+        <v>0.04046339572655355</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G2" t="n">
-        <v>0.027</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         <v>29.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.025</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.026</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="5">
@@ -1178,10 +1178,10 @@
         <v>29.0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="6">
@@ -1201,10 +1201,10 @@
         <v>29.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.026</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         <v>29.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="G7" t="n">
-        <v>0.023</v>
+        <v>0.046</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>6.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06878071093757368</v>
+        <v>-0.13756142187514736</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>20.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07270258980785302</v>
+        <v>0.14540517961570604</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
